--- a/aws-cda/Progress.xlsx
+++ b/aws-cda/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\aws-cda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9BBF52-E440-48BD-A969-C0C23357A28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215CDB9-7F18-4823-8497-19C0807F5471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4133266F-A571-4AFF-B752-5249581B1B80}"/>
   </bookViews>
@@ -2912,7 +2912,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3012,6 +3012,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3098,7 +3114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3176,6 +3192,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4071,7 +4094,7 @@
   <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4080,6 +4103,8 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4092,21 +4117,23 @@
       <c r="C2" s="1">
         <v>79</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="27">
         <f>AVERAGE(C2:C7)</f>
         <v>78.666666666666671</v>
       </c>
       <c r="E2" s="1">
         <v>83</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="28">
         <f>AVERAGE(E2:E7)</f>
         <v>87.166666666666671</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="25" t="e">
+      <c r="G2" s="1">
+        <v>81</v>
+      </c>
+      <c r="H2" s="27">
         <f>AVERAGE(G2:G7)</f>
-        <v>#DIV/0!</v>
+        <v>88.666666666666671</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4117,13 +4144,15 @@
       <c r="C3" s="1">
         <v>83</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1">
         <v>84</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
@@ -4133,13 +4162,15 @@
       <c r="C4" s="1">
         <v>85</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1">
         <v>89</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
@@ -4149,13 +4180,15 @@
       <c r="C5" s="1">
         <v>74</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="18">
         <v>91</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="12">
+        <v>87</v>
+      </c>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
@@ -4165,13 +4198,15 @@
       <c r="C6" s="1">
         <v>76</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="18">
         <v>94</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="25"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="1">
+        <v>93</v>
+      </c>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
@@ -4181,13 +4216,15 @@
       <c r="C7" s="1">
         <v>75</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1">
         <v>82</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="25"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="1">
+        <v>91</v>
+      </c>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4211,10 +4248,12 @@
         <f>AVERAGE(E9:E14)</f>
         <v>83</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="21" t="e">
+      <c r="G9" s="1">
+        <v>86</v>
+      </c>
+      <c r="H9" s="21">
         <f>AVERAGE(G9:G14)</f>
-        <v>#DIV/0!</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4230,7 +4269,9 @@
         <v>80</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>84</v>
+      </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4246,7 +4287,9 @@
         <v>83</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>76</v>
+      </c>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4262,7 +4305,9 @@
         <v>87</v>
       </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>87</v>
+      </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4278,7 +4323,9 @@
         <v>84</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>87</v>
+      </c>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4318,10 +4365,12 @@
         <f>AVERAGE(E16:E21)</f>
         <v>92.5</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="21" t="e">
+      <c r="G16" s="1">
+        <v>86</v>
+      </c>
+      <c r="H16" s="21">
         <f>AVERAGE(G16:G21)</f>
-        <v>#DIV/0!</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4337,7 +4386,9 @@
         <v>96</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>89</v>
+      </c>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4353,7 +4404,9 @@
         <v>92</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>90</v>
+      </c>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4369,7 +4422,9 @@
         <v>92</v>
       </c>
       <c r="F19" s="21"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>93</v>
+      </c>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4385,7 +4440,9 @@
         <v>90</v>
       </c>
       <c r="F20" s="21"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>93</v>
+      </c>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4404,23 +4461,24 @@
       <c r="G21" s="1"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="15">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D26" s="29">
         <f>AVERAGE(D2,D9,D16)</f>
         <v>78.055555555555557</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="15">
-        <f>AVERAGE(F2,F9)</f>
-        <v>85.083333333333343</v>
+      <c r="F26" s="29">
+        <f>AVERAGE(F2,F9, F16)</f>
+        <v>87.555555555555557</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="29">
+        <f>AVERAGE(H2,H9,H16)</f>
+        <v>87.62222222222222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="H9:H14"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="F2:F7"/>
@@ -4429,6 +4487,10 @@
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="F16:F21"/>
     <mergeCell ref="H16:H21"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="H9:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/aws-cda/Progress.xlsx
+++ b/aws-cda/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\aws-cda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215CDB9-7F18-4823-8497-19C0807F5471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29912CBC-07DA-44A2-B52F-9D7005CC7361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4133266F-A571-4AFF-B752-5249581B1B80}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="246">
   <si>
     <t>Practise Test 1</t>
   </si>
@@ -2907,12 +2907,15 @@
   <si>
     <t>aws-certified-developer-associate-real-tests (get certified)</t>
   </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3019,15 +3022,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3114,7 +3108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3174,9 +3168,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3186,19 +3177,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4091,10 +4096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE96D2F-F160-4D03-9F56-FB891C6C291B}">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4107,8 +4112,8 @@
     <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>242</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4117,118 +4122,122 @@
       <c r="C2" s="1">
         <v>79</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <f>AVERAGE(C2:C7)</f>
         <v>78.666666666666671</v>
       </c>
       <c r="E2" s="1">
         <v>83</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <f>AVERAGE(E2:E7)</f>
         <v>87.166666666666671</v>
       </c>
       <c r="G2" s="1">
         <v>81</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="24">
         <f>AVERAGE(G2:G7)</f>
         <v>88.666666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>83</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1">
         <v>84</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1">
         <v>90</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>85</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="1">
         <v>89</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="1">
         <v>90</v>
       </c>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>74</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="18">
         <v>91</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="12">
         <v>87</v>
       </c>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="J5">
+        <f>AVERAGE(G3:G7)</f>
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>76</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="18">
         <v>94</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="1">
         <v>93</v>
       </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>75</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1">
         <v>82</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="1">
         <v>91</v>
       </c>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>243</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4237,115 +4246,121 @@
       <c r="C9" s="1">
         <v>83</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="26">
         <f>AVERAGE(C9:C14)</f>
         <v>73.666666666666671</v>
       </c>
       <c r="E9" s="1">
         <v>81</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="26">
         <f>AVERAGE(E9:E14)</f>
         <v>83</v>
       </c>
       <c r="G9" s="1">
         <v>86</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="26">
         <f>AVERAGE(G9:G14)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+        <v>84.833333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>73</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1">
         <v>80</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="1">
         <v>84</v>
       </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="16">
         <v>68</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1">
         <v>83</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="1">
         <v>76</v>
       </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="H11" s="26"/>
+      <c r="J11">
+        <f>AVERAGE(G9:G10,G12:G14)</f>
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="12">
         <v>76</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1">
         <v>87</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="1">
         <v>87</v>
       </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="12">
         <v>73</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="1">
         <v>84</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="1">
         <v>87</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="19">
         <v>69</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="1">
         <v>83</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="1">
+        <v>89</v>
+      </c>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>244</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4354,127 +4369,142 @@
       <c r="C16" s="1">
         <v>83</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="26">
         <f>AVERAGE(C16:C21)</f>
         <v>81.833333333333329</v>
       </c>
       <c r="E16" s="18">
         <v>93</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="26">
         <f>AVERAGE(E16:E21)</f>
         <v>92.5</v>
       </c>
       <c r="G16" s="1">
         <v>86</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="26">
         <f>AVERAGE(G16:G21)</f>
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>87</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="17">
         <v>96</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="1">
         <v>89</v>
       </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>75</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="18">
         <v>92</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="1">
         <v>90</v>
       </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="H18" s="26"/>
+      <c r="J18">
+        <f>AVERAGE(G17:G21)</f>
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>81</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="18">
         <v>92</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="1">
         <v>93</v>
       </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1">
         <v>78</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="18">
         <v>90</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="1">
         <v>93</v>
       </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>87</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="18">
         <v>92</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D26" s="29">
+      <c r="F21" s="26"/>
+      <c r="G21" s="1">
+        <v>98</v>
+      </c>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32">
         <f>AVERAGE(D2,D9,D16)</f>
         <v>78.055555555555557</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="29">
+      <c r="E26" s="29"/>
+      <c r="F26" s="32">
         <f>AVERAGE(F2,F9, F16)</f>
         <v>87.555555555555557</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="29">
+      <c r="G26" s="29"/>
+      <c r="H26" s="32">
         <f>AVERAGE(H2,H9,H16)</f>
-        <v>87.62222222222222</v>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(J5,J11,J18)</f>
+        <v>89.8</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4544,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4523,145 +4553,145 @@
       <c r="C2" s="14">
         <v>52</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="27">
         <f>AVERAGE(C2:C7)</f>
         <v>58.5</v>
       </c>
       <c r="E2" s="20">
         <v>90</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="28">
         <f>AVERAGE(E2:E7)</f>
         <v>82.333333333333329</v>
       </c>
       <c r="G2" s="1">
         <v>83</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="27">
         <f>AVERAGE(G2:G7)</f>
         <v>77.333333333333329</v>
       </c>
       <c r="I2" s="20">
         <v>95</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="27">
         <f>AVERAGE(I2:I7)</f>
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="11">
         <v>55</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1">
         <v>76</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="1">
         <v>80</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="1">
         <v>84</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="11">
         <v>55</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1">
         <v>78</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="1">
         <v>75</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="1">
         <v>86</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="11">
         <v>61</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1">
         <v>80</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="11">
         <v>70</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="20">
         <v>90</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="11">
         <v>61</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1">
         <v>86</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="1">
         <v>72</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="1">
         <v>89</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11">
         <v>67</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1">
         <v>84</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="1">
         <v>84</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="1">
         <v>84</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4670,134 +4700,134 @@
       <c r="C9" s="1">
         <v>81</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="26">
         <f>AVERAGE(C9:C14)</f>
         <v>76.166666666666671</v>
       </c>
       <c r="E9" s="1">
         <v>80</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="26">
         <f>AVERAGE(E9:E14)</f>
         <v>79.833333333333329</v>
       </c>
       <c r="G9" s="20">
         <v>95</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="26">
         <f>AVERAGE(G9:G14)</f>
         <v>91</v>
       </c>
       <c r="I9" s="20">
         <v>95</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="26">
         <f>AVERAGE(I9:I14)</f>
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>72</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1">
         <v>72</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="1">
         <v>84</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>86</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1">
         <v>84</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="13">
         <v>98</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="21"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="11">
         <v>70</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1">
         <v>81</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="20">
         <v>95</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="12">
         <v>75</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="1">
         <v>87</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="20">
         <v>93</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>73</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="1">
         <v>75</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="1">
         <v>81</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="26" t="s">
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4806,32 +4836,32 @@
       <c r="C16" s="16">
         <v>47</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="27">
         <f>AVERAGE(C16:C17)</f>
         <v>59.5</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="12">
         <v>72</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D20" s="15">
@@ -4856,6 +4886,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="J9:J14"/>
     <mergeCell ref="H2:H7"/>
@@ -4866,11 +4901,6 @@
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F9:F14"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4894,7 +4924,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4903,118 +4933,118 @@
       <c r="C2" s="1">
         <v>67</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="27">
         <f>AVERAGE(C2:C7)</f>
         <v>72.166666666666671</v>
       </c>
       <c r="E2" s="17">
         <v>98</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="27">
         <f>AVERAGE(E2:E7)</f>
         <v>91</v>
       </c>
       <c r="G2" s="1">
         <v>89</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="27">
         <f>AVERAGE(G2:G7)</f>
         <v>87.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>76</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1">
         <v>90</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="1">
         <v>87</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>67</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1">
         <v>90</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="1">
         <v>84</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>70</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1">
         <v>89</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="1">
         <v>95</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>72</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1">
         <v>90</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="1">
         <v>83</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>81</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1">
         <v>89</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="1">
         <v>86</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5023,110 +5053,110 @@
       <c r="C9" s="1">
         <v>80</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="26">
         <f>AVERAGE(C9:C14)</f>
         <v>70.666666666666671</v>
       </c>
       <c r="E9" s="1">
         <v>87</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="26">
         <f>AVERAGE(E9:E14)</f>
         <v>89.5</v>
       </c>
       <c r="G9" s="1">
         <v>87</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="26">
         <f>AVERAGE(G9:G14)</f>
         <v>86.75</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>76</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="1">
         <v>100</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="1">
         <v>96</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>73</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="1">
         <v>90</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="1">
         <v>78</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>67</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="1">
         <v>83</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="1">
         <v>86</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="16">
         <v>58</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="1">
         <v>87</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>70</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="1">
         <v>90</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="15">
